--- a/logs/chat_log.xlsx
+++ b/logs/chat_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7997,7 +7997,6 @@
           <t>2025-09-22T10:59:16.048497</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr"/>
       <c r="C218" t="inlineStr">
         <is>
           <t>ask_reco</t>
@@ -8027,6 +8026,1028 @@
         </is>
       </c>
     </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:12:40.060059</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>What is the best trade now</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>GBPJPY=X</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Suggestion: Sell
+Confidence: Moderate
+Why: GBP/JPY is in an downtrend, potential rejection at the 0.382 line. Signals support this direction, but manage risk.
+Entry: Watch 0.5 retracement near 199.82570-199.98530 for a rejection before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:13:19.860136</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>why does this trade work</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>ask_followup_why</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>GBPJPY=X</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Here’s why the GBPJPY=X setup still makes sense: Classifier tags it as a resistance rejection because price is on the correct side of its rolling trend filter. Probability printed 0.58 versus trigger 0.38, leaving a 0.20 confidence buffer. Price is leaning on the 0.5 retracement near 199.90550; we expect the level to hold (Price is sliding away below the 0.500 retracement after the test.). Under the hood the model blends pure Fibonacci retracement distance and trend filters to flag statistically biased Fib touches.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:14:10.205770</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>what are the best usd pairs</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>USDCAD=X</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Suggestion: Buy
+Confidence: Moderate
+Why: USD/CAD is in an uptrend, potential pullback at the 0.618 line. Signals support this direction, but manage risk.
+Entry: Watch 0.382 retracement near 1.37830-1.37916 for a bounce before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:14:22.056764</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>EURUSD=X</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Suggestion: Wait
+Confidence: Weak
+Why: EUR/USD is in an uptrend, potential pullback at the 0.618 line. But with mixed or weak signals currently, it’s better to wait.
+Entry: Watch 0.5 retracement near 1.17599-1.17655 for a reaction before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:14:27.593772</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>GBPUSD=X</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Suggestion: Wait
+Confidence: Very Weak
+Why: GBP/USD is in an uptrend, potential pullback at the 0.382 line. But with mixed or weak signals currently, it’s better to wait.
+Entry: Watch 0.618 retracement near 1.35157-1.35226 for a reaction before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:14:33.085769</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>AUDUSD=X</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Suggestion: Wait
+Confidence: Very Weak
+Why: AUD/USD is in an uptrend, potential pullback at the 0.5 line. But with mixed or weak signals currently, it’s better to wait.
+Entry: Watch 0.5 retracement near 0.65968-0.66016 for a reaction before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:14:34.037204</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>USDJPY=X</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Suggestion: Sell
+Confidence: Very Weak
+Why: USD/JPY is in an downtrend, potential rejection at the 0.618 line. Signals support this direction, but manage risk.
+Entry: Watch 0.382 retracement near 147.59092-147.69767 for a rejection before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:14:40.891071</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>EURUSD=X</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Suggestion: Wait
+Confidence: Weak
+Why: EUR/USD is in an uptrend, potential pullback at the 0.618 line. But with mixed or weak signals currently, it’s better to wait.
+Entry: Watch 0.5 retracement near 1.17599-1.17655 for a reaction before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:15:06.486162</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>AUDJPY=X</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Suggestion: Sell
+Confidence: Very Weak
+Why: AUD/JPY is in an downtrend, potential rejection at the 0.382 line. Signals support this direction, but manage risk.
+Entry: Watch 0.618 retracement near 97.65142-97.73257 for a rejection before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:15:31.921511</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>GBPJPY=X</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Suggestion: Sell
+Confidence: Moderate
+Why: GBP/JPY is in an downtrend, potential rejection at the 0.382 line. Signals support this direction, but manage risk.
+Entry: Watch 0.5 retracement near 199.82570-199.98530 for a rejection before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:15:37.954032</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>USDCHF=X</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Suggestion: Wait
+Confidence: Weak
+Why: USD/CHF is in an downtrend, potential rejection at the 0.5 line. But with mixed or weak signals currently, it’s better to wait.
+Entry: Watch 0.5 retracement near 0.79340-0.79397 for a reaction before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:15:50.889204</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>CHFJPY=X</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Suggestion: Buy
+Confidence: Very Weak
+Why: CHF/JPY is in an uptrend, potential pullback at the 0.5 line. Signals support this direction, but manage risk.
+Entry: Watch 0.5 retracement near 186.24417-186.34082 for a bounce before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:16:25.140846</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>CHFJPY=X</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Suggestion: Buy
+Confidence: Very Weak
+Why: CHF/JPY is in an uptrend, potential pullback at the 0.5 line. Signals support this direction, but manage risk.
+Entry: Watch 0.5 retracement near 186.24417-186.34082 for a bounce before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:16:35.870725</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>CHFJPY=X</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Suggestion: Wait
+Confidence: Very Weak
+Why: CHF/JPY is in an uptrend, potential pullback at the 0.5 line. But with mixed or weak signals currently, it’s better to wait.
+Entry: Watch 0.5 retracement near 186.24417-186.34082 for a reaction before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:16:59.378300</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>USDCAD=X</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Suggestion: Buy
+Confidence: Weak
+Why: USD/CAD is in an uptrend, potential pullback at the 0.618 line. Signals support this direction, but manage risk.
+Entry: Watch 0.382 retracement near 1.37830-1.37916 for a bounce before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:17:07.278040</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>USDCAD=X</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Suggestion: Buy
+Confidence: Weak
+Why: USD/CAD is in an uptrend, potential pullback at the 0.618 line. Signals support this direction, but manage risk.
+Entry: Watch 0.382 retracement near 1.37830-1.37916 for a bounce before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:20:22.057065</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>what is the best pair now</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>USDCAD=X</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Suggestion: Buy
+Confidence: Moderate
+Why: USD/CAD is in an uptrend, potential pullback at the 0.618 line. Signals support this direction, but manage risk.
+Entry: Watch 0.382 retracement near 1.37830-1.37916 for a bounce before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:21:03.793262</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>why does this trade work</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>ask_followup_why</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>USDCAD=X</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>USDCAD=X: Classifier tags it as a support bounce because price is on the correct side of its rolling trend filter. Probability printed 0.75 versus trigger 0.53, leaving a 0.22 confidence buffer. Price is leaning on the 0.382 retracement near 1.37873; we expect the level to hold (Price is breaking away above the 0.382 retracement.). Under the hood the model blends pure Fibonacci retracement distance and trend filters to flag statistically biased Fib touches.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:22:03.155817</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>show me some jpy pairs</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>USDCAD=X</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Suggestion: Buy
+Confidence: Moderate
+Why: USD/CAD is in an uptrend, potential pullback at the 0.618 line. Signals support this direction, but manage risk.
+Entry: Watch 0.382 retracement near 1.37830-1.37916 for a bounce before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:22:13.244109</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>what about jpy pars</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>GBPJPY=X</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Suggestion: Sell
+Confidence: Moderate
+Why: GBP/JPY is in an downtrend, potential rejection at the 0.382 line. Signals support this direction, but manage risk.
+Entry: Watch 0.5 retracement near 199.82570-199.98530 for a rejection before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:25:05.140299</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>what is the best trade now</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>USDCAD=X</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Suggestion: Buy
+Confidence: Moderate
+Why: USD/CAD is in an uptrend, potential pullback at the 0.618 line. Signals support this direction, but manage risk.
+Entry: Watch 0.382 retracement near 1.37830-1.37916 for a bounce before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:25:57.344735</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>why does this trade work</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>ask_followup_why</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>USDCAD=X</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>USDCAD=X: Classifier tags it as a support bounce because price is on the correct side of its rolling trend filter. Probability printed 0.75 versus trigger 0.53, leaving a 0.22 confidence buffer. Price is leaning on the 0.382 retracement near 1.37873; we expect the level to hold (Price is breaking away above the 0.382 retracement.). Under the hood the model blends pure Fibonacci retracement distance and trend filters to flag statistically biased Fib touches.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:27:23.624431</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>what about jpy pairs</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>GBPJPY=X</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Suggestion: Sell
+Confidence: Moderate
+Why: GBP/JPY is in an downtrend, potential rejection at the 0.382 line. Signals support this direction, but manage risk.
+Entry: Watch 0.5 retracement near 199.82570-199.98530 for a rejection before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:27:46.624990</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>EURUSD=X</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Suggestion: Wait
+Confidence: Weak
+Why: EUR/USD is in an uptrend, potential pullback at the 0.618 line. But with mixed or weak signals currently, it’s better to wait.
+Entry: Watch 0.5 retracement near 1.17599-1.17655 for a reaction before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:27:52.558016</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>AUDUSD=X</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Suggestion: Wait
+Confidence: Very Weak
+Why: AUD/USD is in an uptrend, potential pullback at the 0.382 line. But with mixed or weak signals currently, it’s better to wait.
+Entry: Watch 0.618 retracement near 0.66019-0.66066 for a reaction before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:28:10.159677</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>CHFJPY=X</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Suggestion: Buy
+Confidence: Very Weak
+Why: CHF/JPY is in an uptrend, potential pullback at the 0.5 line. Signals support this direction, but manage risk.
+Entry: Watch 0.5 retracement near 186.24417-186.34082 for a bounce before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:28:29.320417</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>GBPJPY=X</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Suggestion: Sell
+Confidence: Very Weak
+Why: GBP/JPY is in an downtrend, potential rejection at the 0.382 line. Signals support this direction, but manage risk.
+Entry: Watch 0.5 retracement near 199.82570-199.98530 for a rejection before entering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-09-22T11:28:41.006171</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>ask_reco</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>GBPJPY=X</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Suggestion: Sell
+Confidence: Very Weak
+Why: GBP/JPY is in an downtrend, potential rejection at the 0.382 line. Signals support this direction, but manage risk.
+Entry: Watch 0.5 retracement near 199.82570-199.98530 for a rejection before entering.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
